--- a/biology/Botanique/Trolle_d'Europe/Trolle_d'Europe.xlsx
+++ b/biology/Botanique/Trolle_d'Europe/Trolle_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trollius europaeus
 Le Trolle, Trolle d'Europe ou Trolle des montagnes (Trollius europaeus), est une espèce de plantes herbacées vivaces de la famille des Ranunculaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trol dérive du vieil allemand qui signifie « globe », le nom a été donné par allusion à la forme globuleuse de la fleur.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trolle d'Europe est une plante des prairies humides et des bois clairs de montagne d'Europe. On le retrouve entre 500 et 2 500 m d'altitude. Il est présent en France dans tous les massifs montagneux : Vosges, Jura, Alpes, Pyrénées, Corbières. Il est souvent accompagné par des narcisses des poètes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trolle d'Europe forme une touffe compacte de tiges dressées assez serrées, faisant environ 60 cm à 1 m. Il porte des feuilles vert foncé palmatiséquées, plutôt situées assez bas sur la tige[1]. Les fleurs sont hautes, généralement solitaires, en forme de globes de quelques centimètres, formés de 6 à 15 sépales jaune très vif (il est parfois comparé à un gros bouton d'or qui serait resté fermé)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trolle d'Europe forme une touffe compacte de tiges dressées assez serrées, faisant environ 60 cm à 1 m. Il porte des feuilles vert foncé palmatiséquées, plutôt situées assez bas sur la tige. Les fleurs sont hautes, généralement solitaires, en forme de globes de quelques centimètres, formés de 6 à 15 sépales jaune très vif (il est parfois comparé à un gros bouton d'or qui serait resté fermé).
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de mai à août. Le Trolle d'Europe a la particularité d'être pollinisé par une mouche. Six espèces du genre Chiastocheta sont concernées par cette interaction mutualiste[3]. Les mouches pondent leurs œufs qui se développent au détriment des graines, dévorées par les larves.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mai à août. Le Trolle d'Europe a la particularité d'être pollinisé par une mouche. Six espèces du genre Chiastocheta sont concernées par cette interaction mutualiste. Les mouches pondent leurs œufs qui se développent au détriment des graines, dévorées par les larves.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trolle_d%27Europe</t>
+          <t>Trolle_d'Europe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son rhizome est toxique (il contient des substances révulsives). Comme toutes les renonculacées, la plante est légèrement vénéneuse, car contenant un alcaloïde, la proto-anémonine.
 </t>
